--- a/Sufficient data WITH_PO/forecast_summary_B089FWWN62_WITH_PO.xlsx
+++ b/Sufficient data WITH_PO/forecast_summary_B089FWWN62_WITH_PO.xlsx
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
         <v>43</v>
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>13.96</v>
+        <v>14.5</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1.07</v>
+        <v>0.89</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" t="n">
         <v>43</v>
@@ -828,7 +828,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>13.99</v>
+        <v>14.62</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>13.53</v>
+        <v>13.81</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.99</v>
+        <v>0.9</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" t="n">
         <v>43</v>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>11.88</v>
+        <v>12.46</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>10.47</v>
+        <v>10.87</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.99</v>
+        <v>1.12</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" t="n">
         <v>41</v>
@@ -1104,7 +1104,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>9.23</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" t="n">
         <v>41</v>
@@ -1173,7 +1173,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>8.34</v>
+        <v>8.73</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" t="n">
         <v>42</v>
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>7.34</v>
+        <v>7.83</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.86</v>
+        <v>1.06</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>6.14</v>
+        <v>6.37</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1.13</v>
+        <v>0.98</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>5.14</v>
+        <v>5.37</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>4.34</v>
+        <v>4.58</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.91</v>
+        <v>1.12</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3.34</v>
+        <v>3.58</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.99</v>
+        <v>0.9</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.34</v>
+        <v>2.61</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>253</t>
         </is>
       </c>
     </row>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>125</t>
         </is>
       </c>
     </row>
@@ -1760,7 +1760,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>66</t>
         </is>
       </c>
     </row>

--- a/Sufficient data WITH_PO/forecast_summary_B089FWWN62_WITH_PO.xlsx
+++ b/Sufficient data WITH_PO/forecast_summary_B089FWWN62_WITH_PO.xlsx
@@ -512,7 +512,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>W1</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F2" t="n">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G2" t="n">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H2" t="n">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>16.73</v>
+        <v>22.47</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -581,7 +581,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W2</t>
+          <t>W7</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -595,19 +595,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" t="n">
+        <v>36</v>
+      </c>
+      <c r="F3" t="n">
         <v>43</v>
       </c>
-      <c r="F3" t="n">
-        <v>52</v>
-      </c>
       <c r="G3" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H3" t="n">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>15.48</v>
+        <v>19.99</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -650,7 +650,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W3</t>
+          <t>W8</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -664,19 +664,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" t="n">
+        <v>36</v>
+      </c>
+      <c r="F4" t="n">
         <v>43</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>51</v>
       </c>
-      <c r="G4" t="n">
-        <v>60</v>
-      </c>
       <c r="H4" t="n">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -690,7 +690,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>14.48</v>
+        <v>18.99</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1.07</v>
+        <v>0.91</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>W4</t>
+          <t>W9</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -733,19 +733,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F5" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G5" t="n">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H5" t="n">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>14.5</v>
+        <v>18.18</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.89</v>
+        <v>1.19</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W5</t>
+          <t>W10</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F6" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G6" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H6" t="n">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>14.62</v>
+        <v>18.68</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>W11</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -871,19 +871,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F7" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G7" t="n">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H7" t="n">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>13.81</v>
+        <v>18.22</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.9</v>
+        <v>1.14</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>W7</t>
+          <t>W12</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -940,19 +940,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F8" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G8" t="n">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H8" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>12.46</v>
+        <v>16.47</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.95</v>
+        <v>1.04</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W8</t>
+          <t>W13</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1009,19 +1009,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F9" t="n">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G9" t="n">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="H9" t="n">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>10.87</v>
+        <v>14.63</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1.12</v>
+        <v>0.82</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>W9</t>
+          <t>W14</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1078,19 +1078,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F10" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G10" t="n">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H10" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>9.619999999999999</v>
+        <v>13.45</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.8</v>
+        <v>1.19</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>W10</t>
+          <t>W15</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1147,19 +1147,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F11" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G11" t="n">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H11" t="n">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>8.73</v>
+        <v>12.62</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>W11</t>
+          <t>W16</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1216,19 +1216,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F12" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G12" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H12" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>7.83</v>
+        <v>11.46</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1.06</v>
+        <v>0.86</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>W12</t>
+          <t>W17</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1285,19 +1285,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F13" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G13" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H13" t="n">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>6.37</v>
+        <v>10.17</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.98</v>
+        <v>0.8</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>W13</t>
+          <t>W18</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1354,19 +1354,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F14" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G14" t="n">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H14" t="n">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>5.37</v>
+        <v>9.17</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.97</v>
+        <v>1.04</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>W14</t>
+          <t>W19</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1423,19 +1423,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F15" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G15" t="n">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H15" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>4.58</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1.12</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>W15</t>
+          <t>W20</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1492,19 +1492,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F16" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G16" t="n">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H16" t="n">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3.58</v>
+        <v>7.46</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.9</v>
+        <v>1.14</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>W16</t>
+          <t>W21</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1561,19 +1561,19 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F17" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G17" t="n">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H17" t="n">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.61</v>
+        <v>6.5</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>234</t>
         </is>
       </c>
     </row>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>115</t>
         </is>
       </c>
     </row>
@@ -1760,7 +1760,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>59</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
     </row>

--- a/Sufficient data WITH_PO/forecast_summary_B089FWWN62_WITH_PO.xlsx
+++ b/Sufficient data WITH_PO/forecast_summary_B089FWWN62_WITH_PO.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,65 +445,45 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Amazon Mean Forecast</t>
+          <t>Product Title</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Amazon P70 Forecast</t>
+          <t>is_holiday_week</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Amazon P80 Forecast</t>
+          <t>Trend</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Amazon P90 Forecast</t>
+          <t>Inventory Coverage</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Product Title</t>
+          <t>Stockout Risk</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>is_holiday_week</t>
+          <t>Reorder Urgency</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Trend</t>
+          <t>Sales Trend</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Inventory Coverage</t>
+          <t>Seasonality Index</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
-        <is>
-          <t>Stockout Risk</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Reorder Urgency</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Sales Trend</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Seasonality Index</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
         <is>
           <t>Lifecycle Stage</t>
         </is>
@@ -512,12 +492,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>W7</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -526,53 +506,41 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>14</v>
-      </c>
-      <c r="E2" t="n">
-        <v>32</v>
-      </c>
-      <c r="F2" t="n">
-        <v>39</v>
-      </c>
-      <c r="G2" t="n">
-        <v>44</v>
+        <v>19</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>B550I AORUS PRO AX</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
       </c>
       <c r="H2" t="n">
-        <v>54</v>
+        <v>16.14</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>B550I AORUS PRO AX</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Decreasing (▼)</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>22.47</v>
+        <v>1.1</v>
       </c>
       <c r="M2" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Decreasing (▼)</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="Q2" t="inlineStr">
         <is>
           <t>Decline</t>
         </is>
@@ -581,12 +549,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W7</t>
+          <t>W8</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -595,53 +563,41 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>15</v>
-      </c>
-      <c r="E3" t="n">
-        <v>36</v>
-      </c>
-      <c r="F3" t="n">
-        <v>43</v>
-      </c>
-      <c r="G3" t="n">
-        <v>50</v>
+        <v>20</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>B550I AORUS PRO AX</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
       </c>
       <c r="H3" t="n">
-        <v>61</v>
+        <v>14.37</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>B550I AORUS PRO AX</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Decreasing (▼)</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>19.99</v>
+        <v>0.99</v>
       </c>
       <c r="M3" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Decreasing (▼)</t>
-        </is>
-      </c>
-      <c r="P3" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="Q3" t="inlineStr">
         <is>
           <t>Decline</t>
         </is>
@@ -650,12 +606,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W8</t>
+          <t>W9</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -664,53 +620,41 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
-      </c>
-      <c r="E4" t="n">
-        <v>36</v>
-      </c>
-      <c r="F4" t="n">
-        <v>43</v>
-      </c>
-      <c r="G4" t="n">
-        <v>51</v>
+        <v>20</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>B550I AORUS PRO AX</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
       </c>
       <c r="H4" t="n">
-        <v>62</v>
+        <v>13.37</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>B550I AORUS PRO AX</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Decreasing (▼)</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>18.99</v>
+        <v>0.9</v>
       </c>
       <c r="M4" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Decreasing (▼)</t>
-        </is>
-      </c>
-      <c r="P4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="Q4" t="inlineStr">
         <is>
           <t>Decline</t>
         </is>
@@ -719,12 +663,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>W9</t>
+          <t>W10</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -733,53 +677,41 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>14</v>
-      </c>
-      <c r="E5" t="n">
-        <v>38</v>
-      </c>
-      <c r="F5" t="n">
-        <v>46</v>
-      </c>
-      <c r="G5" t="n">
-        <v>53</v>
+        <v>21</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>B550I AORUS PRO AX</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
       </c>
       <c r="H5" t="n">
-        <v>65</v>
+        <v>12.11</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>B550I AORUS PRO AX</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Decreasing (▼)</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>18.18</v>
+        <v>0.97</v>
       </c>
       <c r="M5" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Decreasing (▼)</t>
-        </is>
-      </c>
-      <c r="P5" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="Q5" t="inlineStr">
         <is>
           <t>Decline</t>
         </is>
@@ -788,12 +720,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W10</t>
+          <t>W11</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -802,53 +734,41 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>13</v>
-      </c>
-      <c r="E6" t="n">
-        <v>38</v>
-      </c>
-      <c r="F6" t="n">
-        <v>46</v>
-      </c>
-      <c r="G6" t="n">
-        <v>54</v>
+        <v>20</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>B550I AORUS PRO AX</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
       </c>
       <c r="H6" t="n">
-        <v>67</v>
+        <v>11.44</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>B550I AORUS PRO AX</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Decreasing (▼)</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>18.68</v>
+        <v>1.06</v>
       </c>
       <c r="M6" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Decreasing (▼)</t>
-        </is>
-      </c>
-      <c r="P6" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="Q6" t="inlineStr">
         <is>
           <t>Decline</t>
         </is>
@@ -857,12 +777,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>W11</t>
+          <t>W12</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -871,53 +791,41 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>13</v>
-      </c>
-      <c r="E7" t="n">
-        <v>37</v>
-      </c>
-      <c r="F7" t="n">
-        <v>44</v>
-      </c>
-      <c r="G7" t="n">
-        <v>52</v>
+        <v>20</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>B550I AORUS PRO AX</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
       </c>
       <c r="H7" t="n">
-        <v>65</v>
+        <v>10.34</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>B550I AORUS PRO AX</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Decreasing (▼)</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>18.22</v>
+        <v>1.09</v>
       </c>
       <c r="M7" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Decreasing (▼)</t>
-        </is>
-      </c>
-      <c r="P7" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Q7" t="inlineStr">
         <is>
           <t>Decline</t>
         </is>
@@ -926,12 +834,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>W12</t>
+          <t>W13</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -940,53 +848,41 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>13</v>
-      </c>
-      <c r="E8" t="n">
-        <v>38</v>
-      </c>
-      <c r="F8" t="n">
-        <v>46</v>
-      </c>
-      <c r="G8" t="n">
-        <v>55</v>
+        <v>21</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>B550I AORUS PRO AX</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
       </c>
       <c r="H8" t="n">
-        <v>70</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>B550I AORUS PRO AX</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Decreasing (▼)</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>16.47</v>
+        <v>0.8</v>
       </c>
       <c r="M8" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Decreasing (▼)</t>
-        </is>
-      </c>
-      <c r="P8" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="Q8" t="inlineStr">
         <is>
           <t>Decline</t>
         </is>
@@ -995,12 +891,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W13</t>
+          <t>W14</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1009,53 +905,41 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14</v>
-      </c>
-      <c r="E9" t="n">
-        <v>38</v>
-      </c>
-      <c r="F9" t="n">
-        <v>47</v>
-      </c>
-      <c r="G9" t="n">
-        <v>57</v>
+        <v>21</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>B550I AORUS PRO AX</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
       </c>
       <c r="H9" t="n">
-        <v>73</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>B550I AORUS PRO AX</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Decreasing (▼)</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>14.63</v>
+        <v>0.91</v>
       </c>
       <c r="M9" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>Decreasing (▼)</t>
-        </is>
-      </c>
-      <c r="P9" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="Q9" t="inlineStr">
         <is>
           <t>Decline</t>
         </is>
@@ -1064,12 +948,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>W14</t>
+          <t>W15</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1078,53 +962,41 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>14</v>
-      </c>
-      <c r="E10" t="n">
-        <v>37</v>
-      </c>
-      <c r="F10" t="n">
-        <v>45</v>
-      </c>
-      <c r="G10" t="n">
-        <v>54</v>
+        <v>20</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>B550I AORUS PRO AX</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
       </c>
       <c r="H10" t="n">
-        <v>67</v>
+        <v>7.21</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>B550I AORUS PRO AX</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Decreasing (▼)</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>13.45</v>
+        <v>1.09</v>
       </c>
       <c r="M10" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>Decreasing (▼)</t>
-        </is>
-      </c>
-      <c r="P10" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="Q10" t="inlineStr">
         <is>
           <t>Decline</t>
         </is>
@@ -1133,12 +1005,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>W15</t>
+          <t>W16</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1147,53 +1019,41 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>14</v>
-      </c>
-      <c r="E11" t="n">
-        <v>37</v>
-      </c>
-      <c r="F11" t="n">
-        <v>45</v>
-      </c>
-      <c r="G11" t="n">
-        <v>55</v>
+        <v>20</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>B550I AORUS PRO AX</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
       </c>
       <c r="H11" t="n">
-        <v>70</v>
+        <v>6.21</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>B550I AORUS PRO AX</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Decreasing (▼)</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>12.62</v>
+        <v>0.82</v>
       </c>
       <c r="M11" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>Decreasing (▼)</t>
-        </is>
-      </c>
-      <c r="P11" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="Q11" t="inlineStr">
         <is>
           <t>Decline</t>
         </is>
@@ -1202,12 +1062,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>W16</t>
+          <t>W17</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1216,53 +1076,41 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>14</v>
-      </c>
-      <c r="E12" t="n">
-        <v>37</v>
-      </c>
-      <c r="F12" t="n">
-        <v>45</v>
-      </c>
-      <c r="G12" t="n">
-        <v>55</v>
+        <v>20</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>B550I AORUS PRO AX</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
       </c>
       <c r="H12" t="n">
-        <v>70</v>
+        <v>5.21</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>B550I AORUS PRO AX</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Decreasing (▼)</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>11.46</v>
+        <v>0.83</v>
       </c>
       <c r="M12" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>Decreasing (▼)</t>
-        </is>
-      </c>
-      <c r="P12" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="Q12" t="inlineStr">
         <is>
           <t>Decline</t>
         </is>
@@ -1271,12 +1119,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>W17</t>
+          <t>W18</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1285,53 +1133,41 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>15</v>
-      </c>
-      <c r="E13" t="n">
-        <v>37</v>
-      </c>
-      <c r="F13" t="n">
-        <v>45</v>
-      </c>
-      <c r="G13" t="n">
-        <v>55</v>
+        <v>20</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>B550I AORUS PRO AX</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
       </c>
       <c r="H13" t="n">
-        <v>71</v>
+        <v>4.21</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>B550I AORUS PRO AX</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Decreasing (▼)</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>10.17</v>
+        <v>0.86</v>
       </c>
       <c r="M13" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>Decreasing (▼)</t>
-        </is>
-      </c>
-      <c r="P13" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Q13" t="inlineStr">
         <is>
           <t>Decline</t>
         </is>
@@ -1340,12 +1176,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>W18</t>
+          <t>W19</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1354,53 +1190,41 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>15</v>
-      </c>
-      <c r="E14" t="n">
-        <v>37</v>
-      </c>
-      <c r="F14" t="n">
-        <v>45</v>
-      </c>
-      <c r="G14" t="n">
-        <v>54</v>
+        <v>20</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>B550I AORUS PRO AX</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
       </c>
       <c r="H14" t="n">
-        <v>69</v>
+        <v>3.21</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>B550I AORUS PRO AX</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Decreasing (▼)</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>9.17</v>
+        <v>1.18</v>
       </c>
       <c r="M14" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>Decreasing (▼)</t>
-        </is>
-      </c>
-      <c r="P14" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="Q14" t="inlineStr">
         <is>
           <t>Decline</t>
         </is>
@@ -1409,12 +1233,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>W19</t>
+          <t>W20</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1423,53 +1247,41 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>14</v>
-      </c>
-      <c r="E15" t="n">
-        <v>35</v>
-      </c>
-      <c r="F15" t="n">
-        <v>43</v>
-      </c>
-      <c r="G15" t="n">
-        <v>53</v>
+        <v>20</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>B550I AORUS PRO AX</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
       </c>
       <c r="H15" t="n">
-        <v>69</v>
+        <v>2.27</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>B550I AORUS PRO AX</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Decreasing (▼)</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>8.460000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="M15" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>Decreasing (▼)</t>
-        </is>
-      </c>
-      <c r="P15" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="Q15" t="inlineStr">
         <is>
           <t>Decline</t>
         </is>
@@ -1478,12 +1290,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>W20</t>
+          <t>W21</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1492,53 +1304,41 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>14</v>
-      </c>
-      <c r="E16" t="n">
-        <v>35</v>
-      </c>
-      <c r="F16" t="n">
-        <v>43</v>
-      </c>
-      <c r="G16" t="n">
-        <v>53</v>
+        <v>20</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>B550I AORUS PRO AX</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
       </c>
       <c r="H16" t="n">
-        <v>69</v>
+        <v>1.27</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>B550I AORUS PRO AX</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Decreasing (▼)</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>7.46</v>
+        <v>1.15</v>
       </c>
       <c r="M16" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>Decreasing (▼)</t>
-        </is>
-      </c>
-      <c r="P16" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Q16" t="inlineStr">
         <is>
           <t>Decline</t>
         </is>
@@ -1547,12 +1347,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>W21</t>
+          <t>W22</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-18</t>
+          <t>2025-05-25</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1561,53 +1361,41 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>14</v>
-      </c>
-      <c r="E17" t="n">
-        <v>35</v>
-      </c>
-      <c r="F17" t="n">
-        <v>43</v>
-      </c>
-      <c r="G17" t="n">
-        <v>53</v>
+        <v>20</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>B550I AORUS PRO AX</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
       </c>
       <c r="H17" t="n">
-        <v>70</v>
+        <v>0.27</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>B550I AORUS PRO AX</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Urgent</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Decreasing (▼)</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>6.5</v>
+        <v>1.06</v>
       </c>
       <c r="M17" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>Decreasing (▼)</t>
-        </is>
-      </c>
-      <c r="P17" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="Q17" t="inlineStr">
         <is>
           <t>Decline</t>
         </is>
@@ -1652,7 +1440,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2025-01-26</t>
+          <t>2022-12-25 to 2025-02-02</t>
         </is>
       </c>
     </row>
@@ -1676,7 +1464,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>239</t>
         </is>
       </c>
     </row>
@@ -1700,7 +1488,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -1724,7 +1512,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8181 units</t>
+          <t>8234 units</t>
         </is>
       </c>
     </row>
@@ -1736,7 +1524,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>330</t>
         </is>
       </c>
     </row>
@@ -1748,7 +1536,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>165</t>
         </is>
       </c>
     </row>
@@ -1760,7 +1548,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>82</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1560,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1584,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>20</t>
         </is>
       </c>
     </row>

--- a/Sufficient data WITH_PO/forecast_summary_B089FWWN62_WITH_PO.xlsx
+++ b/Sufficient data WITH_PO/forecast_summary_B089FWWN62_WITH_PO.xlsx
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1.1</v>
+        <v>0.83</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0.99</v>
+        <v>0.82</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0.9</v>
+        <v>1.14</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0.97</v>
+        <v>1.1</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.06</v>
+        <v>0.95</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.09</v>
+        <v>0.86</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0.91</v>
+        <v>1.05</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1.09</v>
+        <v>0.82</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>0.82</v>
+        <v>1.2</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.18</v>
+        <v>0.89</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.2</v>
+        <v>0.89</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.15</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.06</v>
+        <v>0.9</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>

--- a/Sufficient data WITH_PO/forecast_summary_B089FWWN62_WITH_PO.xlsx
+++ b/Sufficient data WITH_PO/forecast_summary_B089FWWN62_WITH_PO.xlsx
@@ -492,12 +492,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>W7</t>
+          <t>W8</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>16.14</v>
+        <v>12.14</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -549,12 +549,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W8</t>
+          <t>W9</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>14.37</v>
+        <v>10.94</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0.82</v>
+        <v>0.9</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -606,12 +606,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W9</t>
+          <t>W10</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>13.37</v>
+        <v>10.27</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.14</v>
+        <v>0.87</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -663,12 +663,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>W10</t>
+          <t>W11</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>12.11</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -720,12 +720,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W11</t>
+          <t>W12</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>11.44</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -777,12 +777,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>W12</t>
+          <t>W13</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10.34</v>
+        <v>7.32</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>0.86</v>
+        <v>1.05</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -834,12 +834,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>W13</t>
+          <t>W14</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9.130000000000001</v>
+        <v>6.27</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -891,12 +891,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W14</t>
+          <t>W15</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8.130000000000001</v>
+        <v>5.31</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1.05</v>
+        <v>0.83</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -948,12 +948,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>W15</t>
+          <t>W16</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7.21</v>
+        <v>4.31</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1005,12 +1005,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>W16</t>
+          <t>W17</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>6.21</v>
+        <v>3.26</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>1.2</v>
+        <v>1.07</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1062,12 +1062,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>W17</t>
+          <t>W18</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5.21</v>
+        <v>2.28</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1119,12 +1119,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>W18</t>
+          <t>W19</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4.21</v>
+        <v>1.28</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>0.83</v>
+        <v>1.12</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1176,12 +1176,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>W19</t>
+          <t>W20</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1204,16 +1204,16 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>3.21</v>
+        <v>0.28</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1233,12 +1233,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>W20</t>
+          <t>W21</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1261,16 +1261,16 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>2.27</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>0.89</v>
+        <v>1.18</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1290,12 +1290,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>W21</t>
+          <t>W22</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-05-18</t>
+          <t>2025-05-25</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1318,16 +1318,16 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1347,12 +1347,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>W22</t>
+          <t>W23</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1361,7 +1361,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2025-02-02</t>
+          <t>2022-12-25 to 2025-02-09</t>
         </is>
       </c>
     </row>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>69</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8234 units</t>
+          <t>8297 units</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>455</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>228</t>
         </is>
       </c>
     </row>
@@ -1548,7 +1548,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>114</t>
         </is>
       </c>
     </row>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>28</t>
         </is>
       </c>
     </row>

--- a/Sufficient data WITH_PO/forecast_summary_B089FWWN62_WITH_PO.xlsx
+++ b/Sufficient data WITH_PO/forecast_summary_B089FWWN62_WITH_PO.xlsx
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10.94</v>
+        <v>11.64</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10.27</v>
+        <v>12.13</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0.87</v>
+        <v>0.96</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9.470000000000001</v>
+        <v>9.17</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8.470000000000001</v>
+        <v>8.25</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7.32</v>
+        <v>7.31</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6.27</v>
+        <v>6.26</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5.31</v>
+        <v>5.26</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0.83</v>
+        <v>1.02</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4.31</v>
+        <v>4.33</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0.86</v>
+        <v>0.99</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3.26</v>
+        <v>4.04</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>1.07</v>
+        <v>0.98</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2.28</v>
+        <v>2.67</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1.07</v>
+        <v>0.8</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1.28</v>
+        <v>1.57</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.12</v>
+        <v>1.03</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1204,11 +1204,11 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.28</v>
+        <v>0.57</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>0.88</v>
+        <v>1.02</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.18</v>
+        <v>0.97</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.13</v>
+        <v>0.84</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>0.98</v>
+        <v>1.05</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>447</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>226</t>
         </is>
       </c>
     </row>
@@ -1548,7 +1548,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>110</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>24</t>
         </is>
       </c>
     </row>

--- a/Sufficient data WITH_PO/forecast_summary_B089FWWN62_WITH_PO.xlsx
+++ b/Sufficient data WITH_PO/forecast_summary_B089FWWN62_WITH_PO.xlsx
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>12.14</v>
+        <v>12.32</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>11.64</v>
+        <v>11.49</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0.98</v>
+        <v>0.86</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>12.13</v>
+        <v>10.34</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0.96</v>
+        <v>0.84</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9.17</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8.25</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0.91</v>
+        <v>1.05</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7.31</v>
+        <v>7.75</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>0.82</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6.26</v>
+        <v>6.7</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.11</v>
+        <v>1.19</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5.26</v>
+        <v>5.78</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1.02</v>
+        <v>1.11</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4.33</v>
+        <v>4.82</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0.99</v>
+        <v>1.06</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4.04</v>
+        <v>3.97</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2.67</v>
+        <v>2.88</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1.57</v>
+        <v>1.94</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.03</v>
+        <v>0.89</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.57</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>0.97</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>0.84</v>
+        <v>1.2</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.05</v>
+        <v>0.83</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>427</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>222</t>
         </is>
       </c>
     </row>
@@ -1548,7 +1548,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>113</t>
         </is>
       </c>
     </row>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
     </row>

--- a/Sufficient data WITH_PO/forecast_summary_B089FWWN62_WITH_PO.xlsx
+++ b/Sufficient data WITH_PO/forecast_summary_B089FWWN62_WITH_PO.xlsx
@@ -492,12 +492,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>W8</t>
+          <t>W10</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>12.32</v>
+        <v>14.31</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0.99</v>
+        <v>1.03</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -549,12 +549,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W9</t>
+          <t>W11</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>11.49</v>
+        <v>13.37</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -606,12 +606,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W10</t>
+          <t>W12</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10.34</v>
+        <v>12.37</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -663,12 +663,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>W11</t>
+          <t>W13</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9.470000000000001</v>
+        <v>11.44</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.07</v>
+        <v>0.89</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -720,12 +720,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W12</t>
+          <t>W14</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8.470000000000001</v>
+        <v>10.43</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.05</v>
+        <v>0.91</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -777,12 +777,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>W13</t>
+          <t>W15</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7.75</v>
+        <v>9.56</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>0.82</v>
+        <v>1.16</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -834,12 +834,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>W14</t>
+          <t>W16</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6.7</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -891,12 +891,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W15</t>
+          <t>W17</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5.78</v>
+        <v>7.45</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -948,12 +948,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>W16</t>
+          <t>W18</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4.82</v>
+        <v>6.49</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1.06</v>
+        <v>0.8</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1005,12 +1005,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>W17</t>
+          <t>W19</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3.97</v>
+        <v>5.48</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1062,12 +1062,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>W18</t>
+          <t>W20</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2.88</v>
+        <v>4.49</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1119,12 +1119,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>W19</t>
+          <t>W21</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1.94</v>
+        <v>3.5</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1176,12 +1176,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>W20</t>
+          <t>W22</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-05-25</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.9399999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1233,12 +1233,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>W21</t>
+          <t>W23</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-05-18</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1261,16 +1261,16 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1290,12 +1290,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>W22</t>
+          <t>W24</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1318,11 +1318,11 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.2</v>
+        <v>0.89</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1347,12 +1347,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>W23</t>
+          <t>W25</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-06-15</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1361,7 +1361,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2025-02-09</t>
+          <t>2022-12-25 to 2025-02-23</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>238</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>74</t>
         </is>
       </c>
     </row>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>61</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8297 units</t>
+          <t>8409 units</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>650</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>327</t>
         </is>
       </c>
     </row>
@@ -1548,7 +1548,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>164</t>
         </is>
       </c>
     </row>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>41</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>40</t>
         </is>
       </c>
     </row>

--- a/Sufficient data WITH_PO/forecast_summary_B089FWWN62_WITH_PO.xlsx
+++ b/Sufficient data WITH_PO/forecast_summary_B089FWWN62_WITH_PO.xlsx
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>14.31</v>
+        <v>11.59</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1.03</v>
+        <v>0.91</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>13.37</v>
+        <v>11.02</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>12.37</v>
+        <v>10.23</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0.89</v>
+        <v>0.99</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>11.44</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10.43</v>
+        <v>8.73</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9.56</v>
+        <v>7.57</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.16</v>
+        <v>1.05</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8.449999999999999</v>
+        <v>6.57</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.12</v>
+        <v>0.95</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7.45</v>
+        <v>6.1</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6.49</v>
+        <v>5.1</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0.8</v>
+        <v>1.18</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5.48</v>
+        <v>4.3</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>4.49</v>
+        <v>3.88</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1.14</v>
+        <v>0.98</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>3.5</v>
+        <v>2.65</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>0.87</v>
+        <v>1.19</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>2.5</v>
+        <v>1.79</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.03</v>
+        <v>1.18</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1.52</v>
+        <v>0.84</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1318,11 +1318,11 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1361,7 +1361,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>0.83</v>
+        <v>1.03</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>659</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>377</t>
         </is>
       </c>
     </row>
@@ -1548,7 +1548,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>198</t>
         </is>
       </c>
     </row>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
     </row>

--- a/Sufficient data WITH_PO/forecast_summary_B089FWWN62_WITH_PO.xlsx
+++ b/Sufficient data WITH_PO/forecast_summary_B089FWWN62_WITH_PO.xlsx
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>11.59</v>
+        <v>14.31</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>11.02</v>
+        <v>13.37</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10.23</v>
+        <v>12.37</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8.859999999999999</v>
+        <v>11.43</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8.73</v>
+        <v>10.43</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0.87</v>
+        <v>1.14</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7.57</v>
+        <v>9.43</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.05</v>
+        <v>0.84</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6.57</v>
+        <v>8.43</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6.1</v>
+        <v>7.47</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5.1</v>
+        <v>6.47</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1.18</v>
+        <v>0.83</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4.3</v>
+        <v>5.47</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>0.82</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3.88</v>
+        <v>4.47</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>0.98</v>
+        <v>0.89</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>2.65</v>
+        <v>3.48</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.19</v>
+        <v>0.89</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1.79</v>
+        <v>2.48</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.18</v>
+        <v>0.91</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.84</v>
+        <v>1.48</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Urgent</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.19</v>
+        <v>1.04</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>0.89</v>
+        <v>1.02</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>659</t>
+          <t>652</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>328</t>
         </is>
       </c>
     </row>
@@ -1548,7 +1548,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>164</t>
         </is>
       </c>
     </row>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>41</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>40</t>
         </is>
       </c>
     </row>

--- a/Sufficient data WITH_PO/forecast_summary_B089FWWN62_WITH_PO.xlsx
+++ b/Sufficient data WITH_PO/forecast_summary_B089FWWN62_WITH_PO.xlsx
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>14.31</v>
+        <v>13.91</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>13.37</v>
+        <v>12.73</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0.87</v>
+        <v>0.98</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>12.37</v>
+        <v>11.78</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>11.43</v>
+        <v>10.78</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10.43</v>
+        <v>9.92</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9.43</v>
+        <v>8.92</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>0.84</v>
+        <v>1.14</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8.43</v>
+        <v>7.96</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0.99</v>
+        <v>0.8</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7.47</v>
+        <v>6.96</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6.47</v>
+        <v>6.04</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5.47</v>
+        <v>4.97</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>0.82</v>
+        <v>0.89</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>4.47</v>
+        <v>4.05</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>0.89</v>
+        <v>1.06</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>3.48</v>
+        <v>3.03</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>2.48</v>
+        <v>2.04</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>0.91</v>
+        <v>1.02</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1.48</v>
+        <v>1.05</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.04</v>
+        <v>1.14</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.02</v>
+        <v>0.82</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>671</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>340</t>
         </is>
       </c>
     </row>
@@ -1548,7 +1548,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>171</t>
         </is>
       </c>
     </row>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>41</t>
         </is>
       </c>
     </row>

--- a/Sufficient data WITH_PO/forecast_summary_B089FWWN62_WITH_PO.xlsx
+++ b/Sufficient data WITH_PO/forecast_summary_B089FWWN62_WITH_PO.xlsx
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>13.91</v>
+        <v>14.28</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>12.73</v>
+        <v>13.12</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0.98</v>
+        <v>0.86</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>11.78</v>
+        <v>12.35</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10.78</v>
+        <v>11.42</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9.92</v>
+        <v>10.26</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8.92</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.14</v>
+        <v>0.98</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7.96</v>
+        <v>8.42</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6.96</v>
+        <v>7.32</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1.13</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6.04</v>
+        <v>6.46</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4.97</v>
+        <v>5.46</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>0.89</v>
+        <v>1.12</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>4.05</v>
+        <v>4.46</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>3.03</v>
+        <v>3.44</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>0.96</v>
+        <v>1.2</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>2.04</v>
+        <v>2.47</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.02</v>
+        <v>1.16</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1.05</v>
+        <v>1.48</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>0.82</v>
+        <v>0.97</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>651</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>329</t>
         </is>
       </c>
     </row>
@@ -1548,7 +1548,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>165</t>
         </is>
       </c>
     </row>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
     </row>

--- a/Sufficient data WITH_PO/forecast_summary_B089FWWN62_WITH_PO.xlsx
+++ b/Sufficient data WITH_PO/forecast_summary_B089FWWN62_WITH_PO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Forecast Comparison" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Forecast Comparison" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Summary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -492,12 +492,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>W10</t>
+          <t>W14</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>14.28</v>
+        <v>12.35</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -549,12 +549,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W11</t>
+          <t>W15</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>13.12</v>
+        <v>13.74</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -606,12 +606,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W12</t>
+          <t>W16</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>12.35</v>
+        <v>12.1</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -663,12 +663,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>W13</t>
+          <t>W17</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>11.42</v>
+        <v>6.94</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -720,12 +720,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W14</t>
+          <t>W18</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10.26</v>
+        <v>5.52</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.07</v>
+        <v>1.17</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -777,12 +777,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>W15</t>
+          <t>W19</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9.529999999999999</v>
+        <v>5.09</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>0.98</v>
+        <v>1.16</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -834,12 +834,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>W16</t>
+          <t>W20</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8.42</v>
+        <v>3.92</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0.96</v>
+        <v>1.19</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -891,12 +891,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W17</t>
+          <t>W21</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7.32</v>
+        <v>3.52</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -948,12 +948,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>W18</t>
+          <t>W22</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-25</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6.46</v>
+        <v>2.96</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1.07</v>
+        <v>0.95</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1005,12 +1005,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>W19</t>
+          <t>W23</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5.46</v>
+        <v>1.45</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>1.12</v>
+        <v>0.86</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1062,12 +1062,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>W20</t>
+          <t>W24</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1090,16 +1090,16 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>4.46</v>
+        <v>0.41</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>0.88</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1119,12 +1119,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>W21</t>
+          <t>W25</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-05-18</t>
+          <t>2025-06-15</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1147,16 +1147,16 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>3.44</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1176,12 +1176,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>W22</t>
+          <t>W26</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
+          <t>2025-06-22</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1204,16 +1204,16 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>2.47</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.16</v>
+        <v>0.92</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1233,12 +1233,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>W23</t>
+          <t>W27</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1261,16 +1261,16 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1290,12 +1290,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>W24</t>
+          <t>W28</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1347,12 +1347,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>W25</t>
+          <t>W29</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-06-15</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1361,7 +1361,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2025-02-23</t>
+          <t>2022-12-25 to 2025-03-23</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>230</t>
         </is>
       </c>
     </row>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>67</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>59</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8409 units</t>
+          <t>8616 units</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>651</t>
+          <t>947</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>435</t>
         </is>
       </c>
     </row>
@@ -1548,7 +1548,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>188</t>
         </is>
       </c>
     </row>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>77</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>38</t>
         </is>
       </c>
     </row>

--- a/Sufficient data WITH_PO/forecast_summary_B089FWWN62_WITH_PO.xlsx
+++ b/Sufficient data WITH_PO/forecast_summary_B089FWWN62_WITH_PO.xlsx
@@ -492,12 +492,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>W14</t>
+          <t>W24</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>12.35</v>
+        <v>7.6</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -549,12 +549,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W15</t>
+          <t>W25</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-06-15</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>13.74</v>
+        <v>6.31</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -606,12 +606,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W16</t>
+          <t>W26</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-06-22</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>12.1</v>
+        <v>5.31</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0.95</v>
+        <v>1.14</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -663,12 +663,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>W17</t>
+          <t>W27</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6.94</v>
+        <v>4.31</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -720,12 +720,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W18</t>
+          <t>W28</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5.52</v>
+        <v>3.12</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.17</v>
+        <v>0.89</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -777,12 +777,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>W19</t>
+          <t>W29</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5.09</v>
+        <v>2.15</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -834,12 +834,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>W20</t>
+          <t>W30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3.92</v>
+        <v>1.15</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.19</v>
+        <v>0.83</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -891,12 +891,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W21</t>
+          <t>W31</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-05-18</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -919,16 +919,16 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3.52</v>
+        <v>0.15</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0.87</v>
+        <v>1.06</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -948,12 +948,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>W22</t>
+          <t>W32</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
+          <t>2025-08-03</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -976,16 +976,16 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2.96</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1005,12 +1005,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>W23</t>
+          <t>W33</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-08-10</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1033,16 +1033,16 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Urgent</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>0.86</v>
+        <v>0.99</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1062,12 +1062,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>W24</t>
+          <t>W34</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-08-17</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1119,12 +1119,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>W25</t>
+          <t>W35</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-06-15</t>
+          <t>2025-08-24</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1176,12 +1176,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>W26</t>
+          <t>W36</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-06-22</t>
+          <t>2025-08-31</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>0.92</v>
+        <v>1.19</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1233,12 +1233,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>W27</t>
+          <t>W37</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-09-07</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1290,12 +1290,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>W28</t>
+          <t>W38</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-09-14</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>0.96</v>
+        <v>1.06</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1347,12 +1347,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>W29</t>
+          <t>W39</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-09-21</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1361,7 +1361,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2025-03-23</t>
+          <t>2022-12-25 to 2025-06-01</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>216</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
     </row>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>65</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>56</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8616 units</t>
+          <t>9171 units</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>947</t>
+          <t>966</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>478</t>
         </is>
       </c>
     </row>
@@ -1548,7 +1548,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>231</t>
         </is>
       </c>
     </row>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>63</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>56</t>
         </is>
       </c>
     </row>
